--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C68CFD2-F2D9-43AD-B682-AEF466A2AFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83173F28-F5FD-45EB-97D8-BF6E6885A902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Contact Me</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Attending Class</t>
   </si>
   <si>
-    <t>(Tentativly) Teaching Class</t>
-  </si>
-  <si>
     <t>Math 1310 - 013</t>
   </si>
   <si>
@@ -78,16 +75,34 @@
     <t>Math 1310 - 014</t>
   </si>
   <si>
-    <t>Likely In Office (80% Of The Time), Normally Available</t>
-  </si>
-  <si>
-    <t>In Office, Available</t>
-  </si>
-  <si>
-    <t>Not In Office, Not Available</t>
-  </si>
-  <si>
     <t>rodney.mccoy@utah.edu</t>
+  </si>
+  <si>
+    <t>Teaching Lab</t>
+  </si>
+  <si>
+    <t>Office Hours</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t>Week 1 Office Hours</t>
+  </si>
+  <si>
+    <t>Math 6410</t>
+  </si>
+  <si>
+    <t>Math 6610</t>
+  </si>
+  <si>
+    <t>Math 6710</t>
+  </si>
+  <si>
+    <t>(Tentative) TA Meeting</t>
+  </si>
+  <si>
+    <t>Likely In Office And Available (3/4 Of The Time)</t>
   </si>
 </sst>
 </file>
@@ -126,13 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -146,19 +154,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA5A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -172,8 +181,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -243,7 +270,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -256,16 +285,131 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -273,8 +417,49 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -282,47 +467,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -330,8 +480,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,64 +519,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -406,21 +547,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -429,109 +565,166 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -819,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,385 +1025,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="41"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="54"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="43"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="34" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+    <row r="25" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20" t="s">
+      <c r="B25" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="61"/>
+      <c r="F25" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="57"/>
+    </row>
+    <row r="27" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="57"/>
+    </row>
+    <row r="28" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="34" t="s">
+      <c r="E28" s="63"/>
+      <c r="F28" s="58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+    <row r="29" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>0.5</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="31"/>
-    </row>
-    <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25" t="s">
+      <c r="B29" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="31"/>
-    </row>
-    <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="21"/>
+      <c r="F30" s="60"/>
+    </row>
+    <row r="31" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="60"/>
+    </row>
+    <row r="32" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+    <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+    <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="B37" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
         <v>0.125</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="36"/>
-    </row>
-    <row r="42" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+    </row>
+    <row r="43" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+    </row>
+    <row r="44" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+    </row>
+    <row r="45" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83173F28-F5FD-45EB-97D8-BF6E6885A902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41DA92B-2EDD-449C-BDE5-C22A2F9496FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Contact Me</t>
   </si>
@@ -102,7 +102,10 @@
     <t>(Tentative) TA Meeting</t>
   </si>
   <si>
-    <t>Likely In Office And Available (3/4 Of The Time)</t>
+    <t>AMC Seminar</t>
+  </si>
+  <si>
+    <t>Normally Available, In Office (3/4 Of The Time)</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,19 +186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFA5A3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,24 +570,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -633,15 +606,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -655,77 +619,68 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -736,6 +691,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFFA5A3"/>
+      <color rgb="FFFF5B5B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1014,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="83" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,15 +991,15 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
@@ -1053,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -1066,10 +1022,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
@@ -1079,10 +1035,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="18"/>
+      <c r="E6" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1103,388 +1059,390 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="50" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="51" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="32"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="47" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="48" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="13">
         <v>0.375</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="32"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="26"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="33" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="32"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="26"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="26"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="51" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="55" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="52" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="56" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="52" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="57"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="48" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="58" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="A29" s="13">
         <v>0.5</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="59" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="50" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="50" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="60"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="50" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="50" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="29"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="32"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="26"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="26"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="A37" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
+      <c r="C37" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="A41" s="13">
         <v>0.125</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="A45" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="42"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="43"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="43"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="20"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD76405-D309-4842-BE41-FDB075EE5B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C26CE0-5C90-4A2A-AA3B-7B85E958320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,25 +180,25 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="darkHorizontal">
-        <fgColor theme="0"/>
-        <bgColor theme="9" tint="0.79992065187536243"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA5A3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="lightGrid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor rgb="FFFFA5A3"/>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkDown">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor theme="8" tint="0.79992065187536243"/>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -513,6 +513,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -521,200 +534,206 @@
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,599 +1024,607 @@
   <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F35" sqref="F30:F35"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="7" customWidth="1"/>
-    <col min="2" max="3" width="14.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" style="7" customWidth="1"/>
-    <col min="6" max="10" width="18.77734375" style="7" customWidth="1"/>
-    <col min="11" max="14" width="9.21875" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" style="1" customWidth="1"/>
+    <col min="6" max="10" width="18.77734375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.21875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="82" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="47" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="24"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="82" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="47" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="7">
         <v>0.375</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="18"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="26" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="18"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="18"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="82" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="82" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="82" t="s">
+      <c r="I17" s="78"/>
+      <c r="J17" s="67" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="47" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="47" t="s">
+      <c r="I18" s="78"/>
+      <c r="J18" s="68" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="60" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="61"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="47"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="62"/>
       <c r="C20" s="63"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="83"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="76"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="82" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="82" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="82" t="s">
+      <c r="I21" s="79"/>
+      <c r="J21" s="67" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="1">
+      <c r="C22" s="74"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="7">
         <v>0.5</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="47" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="47" t="s">
+      <c r="I22" s="20"/>
+      <c r="J22" s="68" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="82" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="82" t="s">
+      <c r="H23" s="65"/>
+      <c r="I23" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="47"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="47" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="83"/>
-      <c r="I24" s="47" t="s">
+      <c r="H24" s="66"/>
+      <c r="I24" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="83"/>
+      <c r="J24" s="69"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="21"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="64">
+      <c r="A26" s="38"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="24"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="18"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="18"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F30" s="82" t="s">
+      <c r="F30" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="7">
         <v>0.125</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="52"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="1">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="37"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="55"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="38"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="56"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="2"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="38"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="56"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="2"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="59"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1746,16 +1773,6 @@
     <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A30:D30"/>
@@ -1763,6 +1780,11 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="B25:C26"/>
@@ -1770,6 +1792,11 @@
     <mergeCell ref="A16:D17"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A9:D10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C26CE0-5C90-4A2A-AA3B-7B85E958320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A771E9-D327-44C7-B7FA-0940DB7F6A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Contact Me</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Unavailable</t>
   </si>
   <si>
-    <t>Week 1 Office Hours</t>
-  </si>
-  <si>
     <t>Math 6410</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Fall 2023</t>
   </si>
   <si>
-    <t>Office: The Loft, LCB 4th Floor</t>
-  </si>
-  <si>
     <t>Email: rodney.mccoy@utah.edu</t>
   </si>
   <si>
@@ -100,13 +94,55 @@
   </si>
   <si>
     <t>Weekly TA Meeting</t>
+  </si>
+  <si>
+    <t>Week 2 Office Hours</t>
+  </si>
+  <si>
+    <t>(Will Probably Change</t>
+  </si>
+  <si>
+    <t>In Week 3</t>
+  </si>
+  <si>
+    <t>Tutoring At Math Center</t>
+  </si>
+  <si>
+    <t>10:45 - 11:35</t>
+  </si>
+  <si>
+    <t>9:45 - 11:45</t>
+  </si>
+  <si>
+    <t>7:30 - 8:20</t>
+  </si>
+  <si>
+    <t>8:35 - 9:25</t>
+  </si>
+  <si>
+    <t>11:50 - 12:40</t>
+  </si>
+  <si>
+    <t>12:25 - 1:45</t>
+  </si>
+  <si>
+    <t>2:00 - 3:00</t>
+  </si>
+  <si>
+    <t>3:30 - 4:30</t>
+  </si>
+  <si>
+    <t>2:00 - 3:30</t>
+  </si>
+  <si>
+    <t>Office: The Loft, LCB, 4th Floor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +202,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -535,205 +584,207 @@
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,7 +1075,7 @@
   <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1039,592 +1090,616 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="64"/>
+      <c r="J17" s="66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="61"/>
+      <c r="H18" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="64"/>
+      <c r="J18" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="61"/>
+      <c r="H22" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="61"/>
+      <c r="J22" s="68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="68"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="62"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="53"/>
+      <c r="I28" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="59"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F30" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F18" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="69"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="79"/>
-      <c r="J21" s="67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="68"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="65" t="s">
+      <c r="G30" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="69"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F30" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="7">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="6">
         <v>0.125</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="70"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="52"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="52"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="52"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="7">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F38" s="54"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="55"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="75"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="56"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="76"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="56"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="76"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="59"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1773,13 +1848,11 @@
     <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D12"/>
     <mergeCell ref="A13:D14"/>
     <mergeCell ref="A35:D35"/>
@@ -1792,11 +1865,13 @@
     <mergeCell ref="A16:D17"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A771E9-D327-44C7-B7FA-0940DB7F6A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94070C8-5341-48BA-A7EB-F92E9C1372E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Contact Me</t>
   </si>
@@ -78,42 +78,24 @@
     <t>AMC Seminar</t>
   </si>
   <si>
-    <t>Normally Available, In Office (3/4 Of The Time)</t>
-  </si>
-  <si>
     <t>Rodney McCoy</t>
   </si>
   <si>
     <t>Fall 2023</t>
   </si>
   <si>
-    <t>Email: rodney.mccoy@utah.edu</t>
-  </si>
-  <si>
     <t>Phone: N/A</t>
   </si>
   <si>
     <t>Weekly TA Meeting</t>
   </si>
   <si>
-    <t>Week 2 Office Hours</t>
-  </si>
-  <si>
-    <t>(Will Probably Change</t>
-  </si>
-  <si>
-    <t>In Week 3</t>
-  </si>
-  <si>
     <t>Tutoring At Math Center</t>
   </si>
   <si>
     <t>10:45 - 11:35</t>
   </si>
   <si>
-    <t>9:45 - 11:45</t>
-  </si>
-  <si>
     <t>7:30 - 8:20</t>
   </si>
   <si>
@@ -135,7 +117,19 @@
     <t>2:00 - 3:30</t>
   </si>
   <si>
-    <t>Office: The Loft, LCB, 4th Floor</t>
+    <t>Email: mccoy@math.utah.edu</t>
+  </si>
+  <si>
+    <t>Office: LCB, 4th Floor, "The Loft"</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t>Available In LCB For Questions (3/4 Of The Time)</t>
+  </si>
+  <si>
+    <t>Preparing For Class</t>
   </si>
 </sst>
 </file>
@@ -247,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -571,6 +565,33 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -581,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -618,88 +639,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -786,6 +725,135 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,7 +1143,7 @@
   <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1090,12 +1158,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="A1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -1114,238 +1182,246 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="55" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="54"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="62"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="54"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="55" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="54"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="6">
         <v>0.375</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="62"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="54"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="59"/>
+      <c r="F13" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="98"/>
+      <c r="H13" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="100"/>
+      <c r="J13" s="90" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="62"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="54"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="54"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="55" t="s">
+      <c r="G17" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="66" t="s">
+      <c r="I17" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="40" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1357,50 +1433,52 @@
       <c r="E18" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="58" t="s">
+      <c r="G18" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="68" t="s">
+      <c r="I18" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="97" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="11"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="68"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="13"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="81" t="s">
-        <v>27</v>
+      <c r="F20" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="87"/>
+      <c r="H20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="87"/>
+      <c r="J20" s="53" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1409,103 +1487,103 @@
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="55" t="s">
+      <c r="G21" s="87"/>
+      <c r="H21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="66" t="s">
+      <c r="I21" s="99"/>
+      <c r="J21" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="13"/>
       <c r="E22" s="6">
         <v>0.5</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="58" t="s">
+      <c r="G22" s="88"/>
+      <c r="H22" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="68" t="s">
+      <c r="I22" s="88"/>
+      <c r="J22" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="13"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="55" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="55" t="s">
+      <c r="H23" s="30"/>
+      <c r="I23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="68"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="58" t="s">
+      <c r="F24" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="58" t="s">
+      <c r="H24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="81" t="s">
-        <v>31</v>
+      <c r="J24" s="53" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="28"/>
+      <c r="B25" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="73"/>
       <c r="D25" s="11"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="11"/>
       <c r="E26" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="62"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
@@ -1513,193 +1591,193 @@
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="54"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="54"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="59"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="58" t="s">
+      <c r="F30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="62"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="6">
         <v>0.125</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="70"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
+      <c r="F35" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="75"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="47"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="76"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="76"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="79"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1848,11 +1926,13 @@
     <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A11:D12"/>
     <mergeCell ref="A13:D14"/>
     <mergeCell ref="A35:D35"/>
@@ -1865,13 +1945,11 @@
     <mergeCell ref="A16:D17"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A9:D10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D8755-7FBA-4D0F-8651-DCEFFE1CA76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3C7C93-AC5C-4A81-9B65-C82E970E5009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Contact Me</t>
   </si>
@@ -114,7 +114,16 @@
     <t>10:00 - 11:00</t>
   </si>
   <si>
-    <t>ODE Meeting</t>
+    <t>3:00 - 4:30</t>
+  </si>
+  <si>
+    <t>At Math Center</t>
+  </si>
+  <si>
+    <t>2:30 - 3:30</t>
+  </si>
+  <si>
+    <t>ODE Study Session</t>
   </si>
 </sst>
 </file>
@@ -559,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,12 +651,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,6 +760,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,29 +804,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,15 +846,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
+      <xdr:colOff>111286</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:rowOff>55009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>860611</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>855356</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -877,38 +883,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="242047" y="4867835"/>
-          <a:ext cx="1721223" cy="1721223"/>
+          <a:off x="233206" y="4855609"/>
+          <a:ext cx="1719430" cy="1707776"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1721532"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1684128"/>
-            <a:gd name="connsiteX1" fmla="*/ 556629 w 1721532"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 1684128"/>
-            <a:gd name="connsiteX2" fmla="*/ 1164903 w 1721532"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 1684128"/>
-            <a:gd name="connsiteX3" fmla="*/ 1721532 w 1721532"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 1684128"/>
-            <a:gd name="connsiteX4" fmla="*/ 1721532 w 1721532"/>
-            <a:gd name="connsiteY4" fmla="*/ 561376 h 1684128"/>
-            <a:gd name="connsiteX5" fmla="*/ 1721532 w 1721532"/>
-            <a:gd name="connsiteY5" fmla="*/ 1156435 h 1684128"/>
-            <a:gd name="connsiteX6" fmla="*/ 1721532 w 1721532"/>
-            <a:gd name="connsiteY6" fmla="*/ 1684128 h 1684128"/>
-            <a:gd name="connsiteX7" fmla="*/ 1164903 w 1721532"/>
-            <a:gd name="connsiteY7" fmla="*/ 1684128 h 1684128"/>
-            <a:gd name="connsiteX8" fmla="*/ 573844 w 1721532"/>
-            <a:gd name="connsiteY8" fmla="*/ 1684128 h 1684128"/>
-            <a:gd name="connsiteX9" fmla="*/ 0 w 1721532"/>
-            <a:gd name="connsiteY9" fmla="*/ 1684128 h 1684128"/>
-            <a:gd name="connsiteX10" fmla="*/ 0 w 1721532"/>
-            <a:gd name="connsiteY10" fmla="*/ 1089069 h 1684128"/>
-            <a:gd name="connsiteX11" fmla="*/ 0 w 1721532"/>
-            <a:gd name="connsiteY11" fmla="*/ 578217 h 1684128"/>
-            <a:gd name="connsiteX12" fmla="*/ 0 w 1721532"/>
-            <a:gd name="connsiteY12" fmla="*/ 0 h 1684128"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1721223"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1721223"/>
+            <a:gd name="connsiteX1" fmla="*/ 556529 w 1721223"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1721223"/>
+            <a:gd name="connsiteX2" fmla="*/ 1164694 w 1721223"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 1721223"/>
+            <a:gd name="connsiteX3" fmla="*/ 1721223 w 1721223"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 1721223"/>
+            <a:gd name="connsiteX4" fmla="*/ 1721223 w 1721223"/>
+            <a:gd name="connsiteY4" fmla="*/ 573741 h 1721223"/>
+            <a:gd name="connsiteX5" fmla="*/ 1721223 w 1721223"/>
+            <a:gd name="connsiteY5" fmla="*/ 1181906 h 1721223"/>
+            <a:gd name="connsiteX6" fmla="*/ 1721223 w 1721223"/>
+            <a:gd name="connsiteY6" fmla="*/ 1721223 h 1721223"/>
+            <a:gd name="connsiteX7" fmla="*/ 1164694 w 1721223"/>
+            <a:gd name="connsiteY7" fmla="*/ 1721223 h 1721223"/>
+            <a:gd name="connsiteX8" fmla="*/ 573741 w 1721223"/>
+            <a:gd name="connsiteY8" fmla="*/ 1721223 h 1721223"/>
+            <a:gd name="connsiteX9" fmla="*/ 0 w 1721223"/>
+            <a:gd name="connsiteY9" fmla="*/ 1721223 h 1721223"/>
+            <a:gd name="connsiteX10" fmla="*/ 0 w 1721223"/>
+            <a:gd name="connsiteY10" fmla="*/ 1113058 h 1721223"/>
+            <a:gd name="connsiteX11" fmla="*/ 0 w 1721223"/>
+            <a:gd name="connsiteY11" fmla="*/ 590953 h 1721223"/>
+            <a:gd name="connsiteX12" fmla="*/ 0 w 1721223"/>
+            <a:gd name="connsiteY12" fmla="*/ 0 h 1721223"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -954,134 +960,134 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="1721532" h="1684128" fill="none" extrusionOk="0">
+            <a:path w="1721223" h="1721223" fill="none" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="258255" y="-26537"/>
-                <a:pt x="383375" y="5274"/>
-                <a:pt x="556629" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="729883" y="-5274"/>
-                <a:pt x="1011855" y="17886"/>
-                <a:pt x="1164903" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1317951" y="-17886"/>
-                <a:pt x="1529140" y="13268"/>
-                <a:pt x="1721532" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1743710" y="195490"/>
-                <a:pt x="1700395" y="444687"/>
-                <a:pt x="1721532" y="561376"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1742669" y="678065"/>
-                <a:pt x="1743724" y="1035003"/>
-                <a:pt x="1721532" y="1156435"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1699340" y="1277867"/>
-                <a:pt x="1700189" y="1473360"/>
-                <a:pt x="1721532" y="1684128"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1483081" y="1701211"/>
-                <a:pt x="1373091" y="1656344"/>
-                <a:pt x="1164903" y="1684128"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="956715" y="1711912"/>
-                <a:pt x="796960" y="1670437"/>
-                <a:pt x="573844" y="1684128"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="350728" y="1697819"/>
-                <a:pt x="219452" y="1676893"/>
-                <a:pt x="0" y="1684128"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-6671" y="1485841"/>
-                <a:pt x="16840" y="1318450"/>
-                <a:pt x="0" y="1089069"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-16840" y="859688"/>
-                <a:pt x="11787" y="722816"/>
-                <a:pt x="0" y="578217"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-11787" y="433618"/>
-                <a:pt x="18816" y="170018"/>
+                <a:pt x="161556" y="-8157"/>
+                <a:pt x="328906" y="1346"/>
+                <a:pt x="556529" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="784152" y="-1346"/>
+                <a:pt x="1019808" y="-322"/>
+                <a:pt x="1164694" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1309580" y="322"/>
+                <a:pt x="1597422" y="13683"/>
+                <a:pt x="1721223" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1709625" y="136589"/>
+                <a:pt x="1742504" y="434633"/>
+                <a:pt x="1721223" y="573741"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1699942" y="712849"/>
+                <a:pt x="1728371" y="979533"/>
+                <a:pt x="1721223" y="1181906"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1714075" y="1384280"/>
+                <a:pt x="1710552" y="1588249"/>
+                <a:pt x="1721223" y="1721223"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1538041" y="1696500"/>
+                <a:pt x="1370711" y="1737163"/>
+                <a:pt x="1164694" y="1721223"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="958677" y="1705283"/>
+                <a:pt x="786374" y="1720070"/>
+                <a:pt x="573741" y="1721223"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="361108" y="1722376"/>
+                <a:pt x="213798" y="1741600"/>
+                <a:pt x="0" y="1721223"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14340" y="1511927"/>
+                <a:pt x="-4756" y="1258261"/>
+                <a:pt x="0" y="1113058"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4756" y="967855"/>
+                <a:pt x="-19719" y="794454"/>
+                <a:pt x="0" y="590953"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19719" y="387453"/>
+                <a:pt x="-16909" y="228173"/>
                 <a:pt x="0" y="0"/>
               </a:cubicBezTo>
               <a:close/>
             </a:path>
-            <a:path w="1721532" h="1684128" stroke="0" extrusionOk="0">
+            <a:path w="1721223" h="1721223" stroke="0" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="248359" y="8315"/>
-                <a:pt x="417196" y="-9759"/>
-                <a:pt x="539413" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="661630" y="9759"/>
-                <a:pt x="931774" y="16440"/>
-                <a:pt x="1078827" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1225880" y="-16440"/>
-                <a:pt x="1405141" y="-27019"/>
-                <a:pt x="1721532" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1712924" y="153079"/>
-                <a:pt x="1742220" y="376835"/>
-                <a:pt x="1721532" y="578217"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1700844" y="779599"/>
-                <a:pt x="1699944" y="868725"/>
-                <a:pt x="1721532" y="1105911"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1743120" y="1343097"/>
-                <a:pt x="1721272" y="1538495"/>
-                <a:pt x="1721532" y="1684128"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1555247" y="1657922"/>
-                <a:pt x="1387940" y="1658072"/>
-                <a:pt x="1113257" y="1684128"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="838574" y="1710184"/>
-                <a:pt x="830053" y="1705418"/>
-                <a:pt x="556629" y="1684128"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="283205" y="1662838"/>
-                <a:pt x="270805" y="1659821"/>
-                <a:pt x="0" y="1684128"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-19467" y="1543390"/>
-                <a:pt x="-20235" y="1262554"/>
-                <a:pt x="0" y="1156435"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="20235" y="1050316"/>
-                <a:pt x="7706" y="817733"/>
-                <a:pt x="0" y="595059"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-7706" y="372385"/>
-                <a:pt x="4165" y="230896"/>
+                <a:pt x="217301" y="8891"/>
+                <a:pt x="387315" y="-3671"/>
+                <a:pt x="539317" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="691319" y="3671"/>
+                <a:pt x="959389" y="-21794"/>
+                <a:pt x="1078633" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1197877" y="21794"/>
+                <a:pt x="1498400" y="17410"/>
+                <a:pt x="1721223" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1716185" y="283875"/>
+                <a:pt x="1694864" y="334489"/>
+                <a:pt x="1721223" y="590953"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1747582" y="847417"/>
+                <a:pt x="1726920" y="942728"/>
+                <a:pt x="1721223" y="1130270"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1715526" y="1317812"/>
+                <a:pt x="1691734" y="1577642"/>
+                <a:pt x="1721223" y="1721223"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1524244" y="1739492"/>
+                <a:pt x="1269843" y="1750866"/>
+                <a:pt x="1113058" y="1721223"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="956273" y="1691580"/>
+                <a:pt x="797519" y="1723184"/>
+                <a:pt x="556529" y="1721223"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="315539" y="1719262"/>
+                <a:pt x="189394" y="1706699"/>
+                <a:pt x="0" y="1721223"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-19654" y="1609077"/>
+                <a:pt x="26917" y="1447211"/>
+                <a:pt x="0" y="1181906"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-26917" y="916601"/>
+                <a:pt x="17816" y="748555"/>
+                <a:pt x="0" y="608165"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-17816" y="467775"/>
+                <a:pt x="-25200" y="192806"/>
                 <a:pt x="0" y="0"/>
               </a:cubicBezTo>
               <a:close/>
@@ -1377,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1393,12 +1399,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1416,10 +1422,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="4">
         <v>0.29166666666666669</v>
       </c>
@@ -1430,12 +1436,12 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -1443,124 +1449,124 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="32" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="4">
         <v>0.33333333333333331</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="34"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="33" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="4"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="31" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="32" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="4">
         <v>0.375</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="19"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="34"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
       <c r="F11" s="1"/>
       <c r="G11" s="13"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="33" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1"/>
       <c r="G12" s="13"/>
@@ -1569,12 +1575,12 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="F13" s="1"/>
       <c r="G13" s="15"/>
       <c r="H13" s="24"/>
@@ -1582,53 +1588,53 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="48" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="G15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="4"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="G16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="52" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1636,49 +1642,49 @@
       <c r="E18" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="50" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="19"/>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="19"/>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="52"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="37"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="4"/>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="51" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="36" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="56" t="s">
+      <c r="J20" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="19"/>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="59" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="19"/>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="62" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1686,52 +1692,52 @@
       <c r="E22" s="4">
         <v>0.5</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="56" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="60" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="65" t="s">
+      <c r="J22" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="59"/>
-      <c r="G23" s="39" t="s">
+      <c r="F23" s="57"/>
+      <c r="G23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="39" t="s">
+      <c r="H23" s="60"/>
+      <c r="I23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="65"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="66" t="s">
+      <c r="J24" s="64" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="25"/>
-      <c r="G25" s="40"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="40"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1739,23 +1745,23 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="40"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="1"/>
-      <c r="G27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="G27" s="38"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="1"/>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="39" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="3"/>
@@ -1771,10 +1777,10 @@
       <c r="E30" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="43" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="27"/>
@@ -1782,56 +1788,58 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="43"/>
-      <c r="G31" s="45"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="43"/>
       <c r="I31" s="13"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="43"/>
-      <c r="G32" s="45"/>
-      <c r="I32" s="13"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="43"/>
+      <c r="I32" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="43"/>
-      <c r="G33" s="45" t="s">
+      <c r="F33" s="41"/>
+      <c r="G33" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="45"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4">
         <v>0.125</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="46" t="s">
-        <v>29</v>
+      <c r="F34" s="41"/>
+      <c r="G34" s="44" t="s">
+        <v>32</v>
       </c>
       <c r="H34" s="27"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="I35" s="13"/>
+      <c r="G35" s="45"/>
+      <c r="I35" s="80" t="s">
+        <v>31</v>
+      </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="12"/>
-      <c r="G36" s="48"/>
+      <c r="G36" s="46"/>
       <c r="I36" s="13"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F37" s="12"/>
-      <c r="G37" s="48" t="s">
-        <v>24</v>
-      </c>
+      <c r="G37" s="46"/>
       <c r="I37" s="13"/>
       <c r="J37" s="3"/>
     </row>
@@ -1840,14 +1848,16 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F38" s="18"/>
-      <c r="G38" s="29"/>
+      <c r="G38" s="46"/>
       <c r="H38" s="27"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F39" s="12"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="46" t="s">
+        <v>29</v>
+      </c>
       <c r="I39" s="13"/>
       <c r="J39" s="3"/>
     </row>
@@ -1858,11 +1868,11 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="5:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3C7C93-AC5C-4A81-9B65-C82E970E5009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027CC32E-E69B-4854-BB99-7FCFAD224A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,31 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEE82EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7800D2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6565FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BC00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4F4F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,6 +195,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB757FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5B9F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00DA00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -568,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,15 +660,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,40 +669,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,36 +700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -807,7 +747,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,16 +821,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6D6D"/>
+      <color rgb="FF00DA00"/>
+      <color rgb="FFF5B9F5"/>
+      <color rgb="FFB757FF"/>
       <color rgb="FF6565FF"/>
       <color rgb="FF00BC00"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFFFC253"/>
       <color rgb="FFFF4F4F"/>
       <color rgb="FFEE82EE"/>
-      <color rgb="FF7800D2"/>
-      <color rgb="FF4B0082"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FF008000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -846,15 +849,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>111286</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>55009</xdr:rowOff>
+      <xdr:colOff>88426</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>855356</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2565</xdr:rowOff>
+      <xdr:colOff>1120140</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>124486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -883,38 +886,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="233206" y="4855609"/>
-          <a:ext cx="1719430" cy="1707776"/>
+          <a:off x="157006" y="4335038"/>
+          <a:ext cx="2205194" cy="2190248"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1721223"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1721223"/>
-            <a:gd name="connsiteX1" fmla="*/ 556529 w 1721223"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 1721223"/>
-            <a:gd name="connsiteX2" fmla="*/ 1164694 w 1721223"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 1721223"/>
-            <a:gd name="connsiteX3" fmla="*/ 1721223 w 1721223"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 1721223"/>
-            <a:gd name="connsiteX4" fmla="*/ 1721223 w 1721223"/>
-            <a:gd name="connsiteY4" fmla="*/ 573741 h 1721223"/>
-            <a:gd name="connsiteX5" fmla="*/ 1721223 w 1721223"/>
-            <a:gd name="connsiteY5" fmla="*/ 1181906 h 1721223"/>
-            <a:gd name="connsiteX6" fmla="*/ 1721223 w 1721223"/>
-            <a:gd name="connsiteY6" fmla="*/ 1721223 h 1721223"/>
-            <a:gd name="connsiteX7" fmla="*/ 1164694 w 1721223"/>
-            <a:gd name="connsiteY7" fmla="*/ 1721223 h 1721223"/>
-            <a:gd name="connsiteX8" fmla="*/ 573741 w 1721223"/>
-            <a:gd name="connsiteY8" fmla="*/ 1721223 h 1721223"/>
-            <a:gd name="connsiteX9" fmla="*/ 0 w 1721223"/>
-            <a:gd name="connsiteY9" fmla="*/ 1721223 h 1721223"/>
-            <a:gd name="connsiteX10" fmla="*/ 0 w 1721223"/>
-            <a:gd name="connsiteY10" fmla="*/ 1113058 h 1721223"/>
-            <a:gd name="connsiteX11" fmla="*/ 0 w 1721223"/>
-            <a:gd name="connsiteY11" fmla="*/ 590953 h 1721223"/>
-            <a:gd name="connsiteX12" fmla="*/ 0 w 1721223"/>
-            <a:gd name="connsiteY12" fmla="*/ 0 h 1721223"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2205194"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2190248"/>
+            <a:gd name="connsiteX1" fmla="*/ 507195 w 2205194"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2190248"/>
+            <a:gd name="connsiteX2" fmla="*/ 992337 w 2205194"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2190248"/>
+            <a:gd name="connsiteX3" fmla="*/ 1521584 w 2205194"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2190248"/>
+            <a:gd name="connsiteX4" fmla="*/ 2205194 w 2205194"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2190248"/>
+            <a:gd name="connsiteX5" fmla="*/ 2205194 w 2205194"/>
+            <a:gd name="connsiteY5" fmla="*/ 591367 h 2190248"/>
+            <a:gd name="connsiteX6" fmla="*/ 2205194 w 2205194"/>
+            <a:gd name="connsiteY6" fmla="*/ 1095124 h 2190248"/>
+            <a:gd name="connsiteX7" fmla="*/ 2205194 w 2205194"/>
+            <a:gd name="connsiteY7" fmla="*/ 1620784 h 2190248"/>
+            <a:gd name="connsiteX8" fmla="*/ 2205194 w 2205194"/>
+            <a:gd name="connsiteY8" fmla="*/ 2190248 h 2190248"/>
+            <a:gd name="connsiteX9" fmla="*/ 1609792 w 2205194"/>
+            <a:gd name="connsiteY9" fmla="*/ 2190248 h 2190248"/>
+            <a:gd name="connsiteX10" fmla="*/ 1124649 w 2205194"/>
+            <a:gd name="connsiteY10" fmla="*/ 2190248 h 2190248"/>
+            <a:gd name="connsiteX11" fmla="*/ 529247 w 2205194"/>
+            <a:gd name="connsiteY11" fmla="*/ 2190248 h 2190248"/>
+            <a:gd name="connsiteX12" fmla="*/ 0 w 2205194"/>
+            <a:gd name="connsiteY12" fmla="*/ 2190248 h 2190248"/>
+            <a:gd name="connsiteX13" fmla="*/ 0 w 2205194"/>
+            <a:gd name="connsiteY13" fmla="*/ 1598881 h 2190248"/>
+            <a:gd name="connsiteX14" fmla="*/ 0 w 2205194"/>
+            <a:gd name="connsiteY14" fmla="*/ 1117026 h 2190248"/>
+            <a:gd name="connsiteX15" fmla="*/ 0 w 2205194"/>
+            <a:gd name="connsiteY15" fmla="*/ 635172 h 2190248"/>
+            <a:gd name="connsiteX16" fmla="*/ 0 w 2205194"/>
+            <a:gd name="connsiteY16" fmla="*/ 0 h 2190248"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -957,137 +968,184 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX12" y="connsiteY12"/>
             </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="1721223" h="1721223" fill="none" extrusionOk="0">
+            <a:path w="2205194" h="2190248" fill="none" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="161556" y="-8157"/>
-                <a:pt x="328906" y="1346"/>
-                <a:pt x="556529" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="784152" y="-1346"/>
-                <a:pt x="1019808" y="-322"/>
-                <a:pt x="1164694" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1309580" y="322"/>
-                <a:pt x="1597422" y="13683"/>
-                <a:pt x="1721223" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1709625" y="136589"/>
-                <a:pt x="1742504" y="434633"/>
-                <a:pt x="1721223" y="573741"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1699942" y="712849"/>
-                <a:pt x="1728371" y="979533"/>
-                <a:pt x="1721223" y="1181906"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1714075" y="1384280"/>
-                <a:pt x="1710552" y="1588249"/>
-                <a:pt x="1721223" y="1721223"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1538041" y="1696500"/>
-                <a:pt x="1370711" y="1737163"/>
-                <a:pt x="1164694" y="1721223"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="958677" y="1705283"/>
-                <a:pt x="786374" y="1720070"/>
-                <a:pt x="573741" y="1721223"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="361108" y="1722376"/>
-                <a:pt x="213798" y="1741600"/>
-                <a:pt x="0" y="1721223"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="14340" y="1511927"/>
-                <a:pt x="-4756" y="1258261"/>
-                <a:pt x="0" y="1113058"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4756" y="967855"/>
-                <a:pt x="-19719" y="794454"/>
-                <a:pt x="0" y="590953"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="19719" y="387453"/>
-                <a:pt x="-16909" y="228173"/>
+                <a:pt x="142325" y="-44159"/>
+                <a:pt x="398241" y="11128"/>
+                <a:pt x="507195" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="616149" y="-11128"/>
+                <a:pt x="871558" y="10009"/>
+                <a:pt x="992337" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1113116" y="-10009"/>
+                <a:pt x="1297198" y="20583"/>
+                <a:pt x="1521584" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1745970" y="-20583"/>
+                <a:pt x="1986921" y="65860"/>
+                <a:pt x="2205194" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2248145" y="282429"/>
+                <a:pt x="2188278" y="377623"/>
+                <a:pt x="2205194" y="591367"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2222110" y="805111"/>
+                <a:pt x="2185448" y="893352"/>
+                <a:pt x="2205194" y="1095124"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2224940" y="1296896"/>
+                <a:pt x="2168180" y="1360267"/>
+                <a:pt x="2205194" y="1620784"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2242208" y="1881301"/>
+                <a:pt x="2191505" y="2032659"/>
+                <a:pt x="2205194" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2055559" y="2199783"/>
+                <a:pt x="1772303" y="2181199"/>
+                <a:pt x="1609792" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1447281" y="2199297"/>
+                <a:pt x="1235141" y="2188333"/>
+                <a:pt x="1124649" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1014157" y="2192163"/>
+                <a:pt x="679577" y="2163045"/>
+                <a:pt x="529247" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="378917" y="2217451"/>
+                <a:pt x="177357" y="2142772"/>
+                <a:pt x="0" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-314" y="1992034"/>
+                <a:pt x="5936" y="1741460"/>
+                <a:pt x="0" y="1598881"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-5936" y="1456302"/>
+                <a:pt x="1424" y="1268717"/>
+                <a:pt x="0" y="1117026"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-1424" y="965336"/>
+                <a:pt x="17125" y="738590"/>
+                <a:pt x="0" y="635172"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-17125" y="531754"/>
+                <a:pt x="1881" y="135195"/>
                 <a:pt x="0" y="0"/>
               </a:cubicBezTo>
               <a:close/>
             </a:path>
-            <a:path w="1721223" h="1721223" stroke="0" extrusionOk="0">
+            <a:path w="2205194" h="2190248" stroke="0" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="217301" y="8891"/>
-                <a:pt x="387315" y="-3671"/>
-                <a:pt x="539317" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="691319" y="3671"/>
-                <a:pt x="959389" y="-21794"/>
-                <a:pt x="1078633" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1197877" y="21794"/>
-                <a:pt x="1498400" y="17410"/>
-                <a:pt x="1721223" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1716185" y="283875"/>
-                <a:pt x="1694864" y="334489"/>
-                <a:pt x="1721223" y="590953"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1747582" y="847417"/>
-                <a:pt x="1726920" y="942728"/>
-                <a:pt x="1721223" y="1130270"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1715526" y="1317812"/>
-                <a:pt x="1691734" y="1577642"/>
-                <a:pt x="1721223" y="1721223"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1524244" y="1739492"/>
-                <a:pt x="1269843" y="1750866"/>
-                <a:pt x="1113058" y="1721223"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="956273" y="1691580"/>
-                <a:pt x="797519" y="1723184"/>
-                <a:pt x="556529" y="1721223"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="315539" y="1719262"/>
-                <a:pt x="189394" y="1706699"/>
-                <a:pt x="0" y="1721223"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-19654" y="1609077"/>
-                <a:pt x="26917" y="1447211"/>
-                <a:pt x="0" y="1181906"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-26917" y="916601"/>
-                <a:pt x="17816" y="748555"/>
-                <a:pt x="0" y="608165"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-17816" y="467775"/>
-                <a:pt x="-25200" y="192806"/>
+                <a:pt x="107288" y="-18267"/>
+                <a:pt x="388811" y="10713"/>
+                <a:pt x="507195" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="625580" y="-10713"/>
+                <a:pt x="849257" y="7798"/>
+                <a:pt x="1014389" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1179521" y="-7798"/>
+                <a:pt x="1412612" y="46040"/>
+                <a:pt x="1543636" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1674660" y="-46040"/>
+                <a:pt x="1967802" y="25146"/>
+                <a:pt x="2205194" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2223874" y="190991"/>
+                <a:pt x="2162762" y="408674"/>
+                <a:pt x="2205194" y="591367"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2247626" y="774060"/>
+                <a:pt x="2184877" y="994109"/>
+                <a:pt x="2205194" y="1182734"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2225511" y="1371359"/>
+                <a:pt x="2118447" y="1969264"/>
+                <a:pt x="2205194" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1960708" y="2224871"/>
+                <a:pt x="1827149" y="2125143"/>
+                <a:pt x="1653896" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1480643" y="2255353"/>
+                <a:pt x="1265406" y="2129667"/>
+                <a:pt x="1102597" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="939788" y="2250829"/>
+                <a:pt x="739904" y="2165180"/>
+                <a:pt x="595402" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="450900" y="2215316"/>
+                <a:pt x="193893" y="2122354"/>
+                <a:pt x="0" y="2190248"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-46902" y="2021204"/>
+                <a:pt x="42228" y="1946096"/>
+                <a:pt x="0" y="1708393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-42228" y="1470691"/>
+                <a:pt x="27562" y="1313000"/>
+                <a:pt x="0" y="1182734"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-27562" y="1052468"/>
+                <a:pt x="19594" y="858308"/>
+                <a:pt x="0" y="657074"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-19594" y="455840"/>
+                <a:pt x="39533" y="326596"/>
                 <a:pt x="0" y="0"/>
               </a:cubicBezTo>
               <a:close/>
@@ -1105,7 +1163,7 @@
                   <a:avLst/>
                 </a:prstGeom>
                 <ask:type>
-                  <ask:lineSketchFreehand/>
+                  <ask:lineSketchScribble/>
                 </ask:type>
               </ask:lineSketchStyleProps>
             </a:ext>
@@ -1384,27 +1442,27 @@
   <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="14.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" style="5" customWidth="1"/>
-    <col min="6" max="10" width="18.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1" style="2" customWidth="1"/>
+    <col min="2" max="3" width="17.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" style="5" customWidth="1"/>
+    <col min="6" max="10" width="18.33203125" style="2" customWidth="1"/>
     <col min="11" max="14" width="9.21875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1422,10 +1480,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="4">
         <v>0.29166666666666669</v>
       </c>
@@ -1436,12 +1494,12 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -1449,124 +1507,124 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="79" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="80" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="4">
         <v>0.33333333333333331</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="32"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="81" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="4"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="79" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="80" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="4">
         <v>0.375</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="19"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="32"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="F11" s="1"/>
       <c r="G11" s="13"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="81" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1"/>
       <c r="G12" s="13"/>
@@ -1575,12 +1633,12 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="F13" s="1"/>
       <c r="G13" s="15"/>
       <c r="H13" s="24"/>
@@ -1588,53 +1646,53 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="38" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="G15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="4"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="G16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="42" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1642,49 +1700,49 @@
       <c r="E18" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="40" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="19"/>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="32" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="19"/>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="50"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="35"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="53"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="4"/>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="41" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="33" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="75" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="19"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="69" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="19"/>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="72" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1692,52 +1750,52 @@
       <c r="E22" s="4">
         <v>0.5</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="76" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="70" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="73" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="57"/>
-      <c r="G23" s="37" t="s">
+      <c r="F23" s="77"/>
+      <c r="G23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="37" t="s">
+      <c r="H23" s="70"/>
+      <c r="I23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="63"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="64" t="s">
+      <c r="J24" s="74" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="25"/>
-      <c r="G25" s="38"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="38"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1745,23 +1803,23 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="38"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="38"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="1"/>
-      <c r="G27" s="38"/>
-      <c r="I27" s="38"/>
+      <c r="G27" s="35"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="1"/>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="36" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="3"/>
@@ -1777,10 +1835,10 @@
       <c r="E30" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="63" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="27"/>
@@ -1788,58 +1846,58 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="41"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="63"/>
       <c r="I31" s="13"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="41"/>
-      <c r="G32" s="43"/>
-      <c r="I32" s="44" t="s">
+      <c r="F32" s="61"/>
+      <c r="G32" s="63"/>
+      <c r="I32" s="64" t="s">
         <v>30</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="41"/>
-      <c r="G33" s="43" t="s">
+      <c r="F33" s="61"/>
+      <c r="G33" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="45"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4">
         <v>0.125</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="44" t="s">
+      <c r="F34" s="61"/>
+      <c r="G34" s="64" t="s">
         <v>32</v>
       </c>
       <c r="H34" s="27"/>
-      <c r="I34" s="45"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="I35" s="80" t="s">
+      <c r="G35" s="65"/>
+      <c r="I35" s="67" t="s">
         <v>31</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="12"/>
-      <c r="G36" s="46"/>
+      <c r="G36" s="66"/>
       <c r="I36" s="13"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F37" s="12"/>
-      <c r="G37" s="46"/>
+      <c r="G37" s="66"/>
       <c r="I37" s="13"/>
       <c r="J37" s="3"/>
     </row>
@@ -1848,14 +1906,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F38" s="18"/>
-      <c r="G38" s="46"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="27"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F39" s="12"/>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="68" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="13"/>

--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027CC32E-E69B-4854-BB99-7FCFAD224A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0CAB32-86CD-4677-A6A7-F9E7D4FEF9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Contact Me</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Math 6710</t>
   </si>
   <si>
-    <t>AMC Seminar</t>
-  </si>
-  <si>
     <t>Rodney McCoy</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>12:25 - 1:45</t>
   </si>
   <si>
-    <t>2:00 - 3:00</t>
-  </si>
-  <si>
     <t>2:00 - 3:30</t>
   </si>
   <si>
@@ -117,13 +111,16 @@
     <t>3:00 - 4:30</t>
   </si>
   <si>
-    <t>At Math Center</t>
-  </si>
-  <si>
     <t>2:30 - 3:30</t>
   </si>
   <si>
     <t>ODE Study Session</t>
+  </si>
+  <si>
+    <t>Tutoring</t>
+  </si>
+  <si>
+    <t>Math Center</t>
   </si>
 </sst>
 </file>
@@ -702,6 +699,69 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,70 +807,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,338 +839,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88426</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14498</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1120140</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>124486</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790A22F0-F6BC-FB19-0B68-F0D0D5B0F9BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="157006" y="4335038"/>
-          <a:ext cx="2205194" cy="2190248"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2205194"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 2190248"/>
-            <a:gd name="connsiteX1" fmla="*/ 507195 w 2205194"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2190248"/>
-            <a:gd name="connsiteX2" fmla="*/ 992337 w 2205194"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2190248"/>
-            <a:gd name="connsiteX3" fmla="*/ 1521584 w 2205194"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 2190248"/>
-            <a:gd name="connsiteX4" fmla="*/ 2205194 w 2205194"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 2190248"/>
-            <a:gd name="connsiteX5" fmla="*/ 2205194 w 2205194"/>
-            <a:gd name="connsiteY5" fmla="*/ 591367 h 2190248"/>
-            <a:gd name="connsiteX6" fmla="*/ 2205194 w 2205194"/>
-            <a:gd name="connsiteY6" fmla="*/ 1095124 h 2190248"/>
-            <a:gd name="connsiteX7" fmla="*/ 2205194 w 2205194"/>
-            <a:gd name="connsiteY7" fmla="*/ 1620784 h 2190248"/>
-            <a:gd name="connsiteX8" fmla="*/ 2205194 w 2205194"/>
-            <a:gd name="connsiteY8" fmla="*/ 2190248 h 2190248"/>
-            <a:gd name="connsiteX9" fmla="*/ 1609792 w 2205194"/>
-            <a:gd name="connsiteY9" fmla="*/ 2190248 h 2190248"/>
-            <a:gd name="connsiteX10" fmla="*/ 1124649 w 2205194"/>
-            <a:gd name="connsiteY10" fmla="*/ 2190248 h 2190248"/>
-            <a:gd name="connsiteX11" fmla="*/ 529247 w 2205194"/>
-            <a:gd name="connsiteY11" fmla="*/ 2190248 h 2190248"/>
-            <a:gd name="connsiteX12" fmla="*/ 0 w 2205194"/>
-            <a:gd name="connsiteY12" fmla="*/ 2190248 h 2190248"/>
-            <a:gd name="connsiteX13" fmla="*/ 0 w 2205194"/>
-            <a:gd name="connsiteY13" fmla="*/ 1598881 h 2190248"/>
-            <a:gd name="connsiteX14" fmla="*/ 0 w 2205194"/>
-            <a:gd name="connsiteY14" fmla="*/ 1117026 h 2190248"/>
-            <a:gd name="connsiteX15" fmla="*/ 0 w 2205194"/>
-            <a:gd name="connsiteY15" fmla="*/ 635172 h 2190248"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 2205194"/>
-            <a:gd name="connsiteY16" fmla="*/ 0 h 2190248"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX10" y="connsiteY10"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX11" y="connsiteY11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX12" y="connsiteY12"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX13" y="connsiteY13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX14" y="connsiteY14"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX15" y="connsiteY15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX16" y="connsiteY16"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="2205194" h="2190248" fill="none" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="142325" y="-44159"/>
-                <a:pt x="398241" y="11128"/>
-                <a:pt x="507195" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="616149" y="-11128"/>
-                <a:pt x="871558" y="10009"/>
-                <a:pt x="992337" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1113116" y="-10009"/>
-                <a:pt x="1297198" y="20583"/>
-                <a:pt x="1521584" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1745970" y="-20583"/>
-                <a:pt x="1986921" y="65860"/>
-                <a:pt x="2205194" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2248145" y="282429"/>
-                <a:pt x="2188278" y="377623"/>
-                <a:pt x="2205194" y="591367"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2222110" y="805111"/>
-                <a:pt x="2185448" y="893352"/>
-                <a:pt x="2205194" y="1095124"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2224940" y="1296896"/>
-                <a:pt x="2168180" y="1360267"/>
-                <a:pt x="2205194" y="1620784"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2242208" y="1881301"/>
-                <a:pt x="2191505" y="2032659"/>
-                <a:pt x="2205194" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2055559" y="2199783"/>
-                <a:pt x="1772303" y="2181199"/>
-                <a:pt x="1609792" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1447281" y="2199297"/>
-                <a:pt x="1235141" y="2188333"/>
-                <a:pt x="1124649" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1014157" y="2192163"/>
-                <a:pt x="679577" y="2163045"/>
-                <a:pt x="529247" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="378917" y="2217451"/>
-                <a:pt x="177357" y="2142772"/>
-                <a:pt x="0" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-314" y="1992034"/>
-                <a:pt x="5936" y="1741460"/>
-                <a:pt x="0" y="1598881"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-5936" y="1456302"/>
-                <a:pt x="1424" y="1268717"/>
-                <a:pt x="0" y="1117026"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-1424" y="965336"/>
-                <a:pt x="17125" y="738590"/>
-                <a:pt x="0" y="635172"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-17125" y="531754"/>
-                <a:pt x="1881" y="135195"/>
-                <a:pt x="0" y="0"/>
-              </a:cubicBezTo>
-              <a:close/>
-            </a:path>
-            <a:path w="2205194" h="2190248" stroke="0" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="107288" y="-18267"/>
-                <a:pt x="388811" y="10713"/>
-                <a:pt x="507195" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="625580" y="-10713"/>
-                <a:pt x="849257" y="7798"/>
-                <a:pt x="1014389" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1179521" y="-7798"/>
-                <a:pt x="1412612" y="46040"/>
-                <a:pt x="1543636" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1674660" y="-46040"/>
-                <a:pt x="1967802" y="25146"/>
-                <a:pt x="2205194" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2223874" y="190991"/>
-                <a:pt x="2162762" y="408674"/>
-                <a:pt x="2205194" y="591367"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2247626" y="774060"/>
-                <a:pt x="2184877" y="994109"/>
-                <a:pt x="2205194" y="1182734"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2225511" y="1371359"/>
-                <a:pt x="2118447" y="1969264"/>
-                <a:pt x="2205194" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1960708" y="2224871"/>
-                <a:pt x="1827149" y="2125143"/>
-                <a:pt x="1653896" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1480643" y="2255353"/>
-                <a:pt x="1265406" y="2129667"/>
-                <a:pt x="1102597" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="939788" y="2250829"/>
-                <a:pt x="739904" y="2165180"/>
-                <a:pt x="595402" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="450900" y="2215316"/>
-                <a:pt x="193893" y="2122354"/>
-                <a:pt x="0" y="2190248"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-46902" y="2021204"/>
-                <a:pt x="42228" y="1946096"/>
-                <a:pt x="0" y="1708393"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-42228" y="1470691"/>
-                <a:pt x="27562" y="1313000"/>
-                <a:pt x="0" y="1182734"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-27562" y="1052468"/>
-                <a:pt x="19594" y="858308"/>
-                <a:pt x="0" y="657074"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-19594" y="455840"/>
-                <a:pt x="39533" y="326596"/>
-                <a:pt x="0" y="0"/>
-              </a:cubicBezTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:extLst>
-            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
-              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="2906036195">
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <ask:type>
-                  <ask:lineSketchScribble/>
-                </ask:type>
-              </ask:lineSketchStyleProps>
-            </a:ext>
-          </a:extLst>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1442,7 +1107,7 @@
   <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1457,12 +1122,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1480,10 +1145,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="4">
         <v>0.29166666666666669</v>
       </c>
@@ -1494,12 +1159,12 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -1507,124 +1172,124 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="63" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="64" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="4">
         <v>0.33333333333333331</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="80"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="81" t="s">
-        <v>20</v>
+      <c r="I7" s="65" t="s">
+        <v>19</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="4"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="63" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="64" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="4">
         <v>0.375</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="19"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="80"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="F11" s="1"/>
       <c r="G11" s="13"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="81" t="s">
-        <v>21</v>
+      <c r="I11" s="65" t="s">
+        <v>20</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1"/>
       <c r="G12" s="13"/>
@@ -1633,12 +1298,12 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
+      <c r="A13" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
       <c r="F13" s="1"/>
       <c r="G13" s="15"/>
       <c r="H13" s="24"/>
@@ -1646,10 +1311,10 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -1663,10 +1328,10 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
       <c r="F15" s="1"/>
       <c r="G15" s="38"/>
       <c r="I15" s="38"/>
@@ -1684,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>6</v>
@@ -1722,27 +1387,27 @@
     <row r="20" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="4"/>
       <c r="F20" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="59" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="19"/>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="53" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="19"/>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="56" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1750,45 +1415,45 @@
       <c r="E22" s="4">
         <v>0.5</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="60" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="70" t="s">
+      <c r="H22" s="54" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="57" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="77"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="70"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="73"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
-      <c r="F24" s="78" t="s">
-        <v>22</v>
+      <c r="F24" s="62" t="s">
+        <v>21</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="71" t="s">
-        <v>22</v>
+      <c r="H24" s="55" t="s">
+        <v>21</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="74" t="s">
-        <v>22</v>
+      <c r="J24" s="58" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1817,10 +1482,10 @@
     <row r="28" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="1"/>
       <c r="G28" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J28" s="3"/>
     </row>
@@ -1835,69 +1500,67 @@
       <c r="E30" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F30" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>14</v>
-      </c>
+      <c r="F30" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="81"/>
       <c r="H30" s="27"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="61"/>
-      <c r="G31" s="63"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="81"/>
       <c r="I31" s="13"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="61"/>
-      <c r="G32" s="63"/>
-      <c r="I32" s="64" t="s">
+      <c r="F32" s="46"/>
+      <c r="G32" s="81"/>
+      <c r="I32" s="48" t="s">
         <v>30</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="61"/>
-      <c r="G33" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="65"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="81"/>
+      <c r="I33" s="49" t="s">
+        <v>31</v>
+      </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4">
         <v>0.125</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="64" t="s">
-        <v>32</v>
+      <c r="F34" s="46"/>
+      <c r="G34" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="H34" s="27"/>
-      <c r="I34" s="65"/>
+      <c r="I34" s="49"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="65"/>
-      <c r="I35" s="67" t="s">
-        <v>31</v>
+      <c r="F35" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="49"/>
+      <c r="I35" s="51" t="s">
+        <v>28</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="12"/>
-      <c r="G36" s="66"/>
+      <c r="G36" s="50"/>
       <c r="I36" s="13"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F37" s="12"/>
-      <c r="G37" s="66"/>
+      <c r="G37" s="50"/>
       <c r="I37" s="13"/>
       <c r="J37" s="3"/>
     </row>
@@ -1906,15 +1569,15 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F38" s="18"/>
-      <c r="G38" s="66"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="27"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F39" s="12"/>
-      <c r="G39" s="68" t="s">
-        <v>29</v>
+      <c r="G39" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="3"/>
@@ -2090,6 +1753,5 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0CAB32-86CD-4677-A6A7-F9E7D4FEF9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A6BD17-9D2E-4D1E-A151-948789665255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Contact Me</t>
   </si>
@@ -45,30 +45,6 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Attending Class</t>
-  </si>
-  <si>
-    <t>Math 1310 - 013</t>
-  </si>
-  <si>
-    <t>Math 1310 - 014</t>
-  </si>
-  <si>
-    <t>Teaching Lab</t>
-  </si>
-  <si>
-    <t>Office Hours</t>
-  </si>
-  <si>
-    <t>Math 6410</t>
-  </si>
-  <si>
-    <t>Math 6610</t>
-  </si>
-  <si>
-    <t>Math 6710</t>
-  </si>
-  <si>
     <t>Rodney McCoy</t>
   </si>
   <si>
@@ -78,25 +54,7 @@
     <t>Phone: N/A</t>
   </si>
   <si>
-    <t>Weekly TA Meeting</t>
-  </si>
-  <si>
-    <t>10:45 - 11:35</t>
-  </si>
-  <si>
-    <t>7:30 - 8:20</t>
-  </si>
-  <si>
-    <t>8:35 - 9:25</t>
-  </si>
-  <si>
     <t>11:50 - 12:40</t>
-  </si>
-  <si>
-    <t>12:25 - 1:45</t>
-  </si>
-  <si>
-    <t>2:00 - 3:30</t>
   </si>
   <si>
     <t>Email: mccoy@math.utah.edu</t>
@@ -105,22 +63,19 @@
     <t>Office: LCB, 4th Floor, "The Loft"</t>
   </si>
   <si>
-    <t>10:00 - 11:00</t>
+    <t>In Class - 6420</t>
   </si>
   <si>
-    <t>3:00 - 4:30</t>
+    <t>12:55 - 1:45</t>
   </si>
   <si>
-    <t>2:30 - 3:30</t>
+    <t>In Class - 6620</t>
   </si>
   <si>
-    <t>ODE Study Session</t>
+    <t>In Class - 6720</t>
   </si>
   <si>
-    <t>Tutoring</t>
-  </si>
-  <si>
-    <t>Math Center</t>
+    <t>9:40 - 10:30</t>
   </si>
 </sst>
 </file>
@@ -167,7 +122,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +171,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF71"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B9CFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF20E82E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -297,8 +270,34 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -308,127 +307,53 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,7 +406,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -489,7 +416,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -506,55 +433,39 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -565,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,9 +484,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,175 +499,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -774,7 +520,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,16 +544,178 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,16 +726,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF20E82E"/>
+      <color rgb="FF09FF09"/>
+      <color rgb="FF00DA00"/>
+      <color rgb="FFFFFF71"/>
+      <color rgb="FF8B9CFF"/>
+      <color rgb="FF6565FF"/>
       <color rgb="FFFF6D6D"/>
-      <color rgb="FF00DA00"/>
       <color rgb="FFF5B9F5"/>
       <color rgb="FFB757FF"/>
-      <color rgb="FF6565FF"/>
       <color rgb="FF00BC00"/>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FFFFC253"/>
-      <color rgb="FFFF4F4F"/>
-      <color rgb="FFEE82EE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1104,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1115,485 +1023,464 @@
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
     <col min="2" max="3" width="17.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="1" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" style="4" customWidth="1"/>
     <col min="6" max="10" width="18.33203125" style="2" customWidth="1"/>
     <col min="11" max="14" width="9.21875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="49"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="45"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="45"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="49"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="45"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="66"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="66"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="F15" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="45"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="42"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="40"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="42"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="41"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="3"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="72"/>
+    </row>
+    <row r="23" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="71"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="72"/>
+    </row>
+    <row r="24" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
+      <c r="F24" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="H24" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="40"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="4"/>
-      <c r="F20" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="61"/>
-      <c r="G23" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="57"/>
-    </row>
-    <row r="24" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="4"/>
-      <c r="F24" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="35" t="s">
+      <c r="G25" s="34"/>
+      <c r="H25" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F26" s="77"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="78"/>
+    </row>
+    <row r="27" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="77"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="78"/>
+    </row>
+    <row r="28" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="35" t="s">
+      <c r="G28" s="34"/>
+      <c r="H28" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="25"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="1"/>
-      <c r="G27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="1"/>
-      <c r="G28" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="4">
+      <c r="I28" s="34"/>
+      <c r="J28" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="39"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F30" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="46"/>
-      <c r="G31" s="81"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="46"/>
-      <c r="G32" s="81"/>
-      <c r="I32" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="3"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="49"/>
+    </row>
+    <row r="31" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="42"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="42"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="45"/>
     </row>
     <row r="33" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="46"/>
-      <c r="G33" s="81"/>
-      <c r="I33" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="3"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>0.125</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="49"/>
-      <c r="I35" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="3"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="45"/>
     </row>
     <row r="36" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="12"/>
-      <c r="G36" s="50"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="3"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="45"/>
     </row>
     <row r="37" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="12"/>
-      <c r="G37" s="50"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="3"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="38" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="12"/>
-      <c r="G39" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="3"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="45"/>
     </row>
     <row r="40" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="3"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="45"/>
     </row>
     <row r="41" spans="5:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="46"/>
     </row>
     <row r="42" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A6BD17-9D2E-4D1E-A151-948789665255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A488365B-8357-4ACE-95C1-571D6091FF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Contact Me</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Rodney McCoy</t>
   </si>
   <si>
-    <t>Fall 2023</t>
-  </si>
-  <si>
     <t>Phone: N/A</t>
   </si>
   <si>
@@ -76,6 +73,15 @@
   </si>
   <si>
     <t>9:40 - 10:30</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>AMC Seminar</t>
+  </si>
+  <si>
+    <t>2:00 - 3:00</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,6 +514,159 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,169 +712,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,6 +729,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB757FF"/>
       <color rgb="FF20E82E"/>
       <color rgb="FF09FF09"/>
       <color rgb="FF00DA00"/>
@@ -734,7 +738,6 @@
       <color rgb="FF6565FF"/>
       <color rgb="FFFF6D6D"/>
       <color rgb="FFF5B9F5"/>
-      <color rgb="FFB757FF"/>
       <color rgb="FF00BC00"/>
     </mruColors>
   </colors>
@@ -1015,7 +1018,7 @@
   <dimension ref="A1:L186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1030,12 +1033,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1053,434 +1056,433 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="43"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="F3" s="1"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="44"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="44"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="45"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="49"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="45"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="45"/>
-      <c r="L8" s="26"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="45"/>
-      <c r="L9" s="26"/>
+      <c r="A9" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="3">
         <v>0.375</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="49"/>
-      <c r="L10" s="27"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="30"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="45"/>
-      <c r="L11" s="28"/>
+      <c r="A11" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="26"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="29"/>
+      <c r="F12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="66"/>
-      <c r="L13" s="30"/>
+      <c r="A13" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="47"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="66"/>
-      <c r="L14" s="31"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="47"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="F15" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="32"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="F15" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="45"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="42"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="26"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="24"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="40"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="42"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="41"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="31"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="24"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="3"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="24"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="3">
         <v>0.5</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="72"/>
-    </row>
-    <row r="23" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="71"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="72"/>
-    </row>
-    <row r="24" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="52"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="52"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="53"/>
+    </row>
+    <row r="24" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
-      <c r="F24" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="78"/>
-    </row>
-    <row r="27" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="77"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="78"/>
-    </row>
-    <row r="28" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="39"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="45"/>
-    </row>
-    <row r="30" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="58"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="59"/>
+    </row>
+    <row r="27" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="58"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="59"/>
+    </row>
+    <row r="28" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="49"/>
-    </row>
-    <row r="31" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="42"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="45"/>
-    </row>
-    <row r="32" spans="5:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="42"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="45"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="24"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="78"/>
+    </row>
+    <row r="32" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="24"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="78"/>
     </row>
     <row r="33" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="42"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="45"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="79" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="3">
         <v>0.125</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="49"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="42"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="45"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="39"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="45"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="39"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="45"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="49"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="39"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="45"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="39"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="45"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="5:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F41" s="48"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="46"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A488365B-8357-4ACE-95C1-571D6091FF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D2029F-713B-4D05-82F9-FAA9861C49DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Contact Me</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>2:00 - 3:00</t>
+  </si>
+  <si>
+    <t>GSAC</t>
+  </si>
+  <si>
+    <t>In Class - 7875</t>
+  </si>
+  <si>
+    <t>9:10 - 10:30</t>
   </si>
 </sst>
 </file>
@@ -128,24 +137,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6565FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -156,24 +153,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB757FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5B9F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DA00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6D6D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -478,11 +457,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,27 +504,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,85 +555,85 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,13 +681,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L186"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1032,13 +1016,13 @@
     <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1055,370 +1039,421 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="F3" s="1"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="19"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="19"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="19"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="3">
         <v>0.375</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="30"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="23"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="76"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="73" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="26"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
+      <c r="I11" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="35" t="s">
+      <c r="G12" s="74"/>
+      <c r="H12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="45" t="s">
+      <c r="I12" s="74"/>
+      <c r="J12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="L12" s="77"/>
+      <c r="M12" s="76"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="47"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="38"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="76"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="47"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="F15" s="48" t="s">
+      <c r="F14" s="71"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="38"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="76"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="F15" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="37" t="s">
+      <c r="G15" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="49" t="s">
+      <c r="I15" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="77"/>
+      <c r="M15" s="76"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="26"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+    </row>
+    <row r="17" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="17"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="16"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+    </row>
+    <row r="18" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+    </row>
+    <row r="19" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="17"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="16"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+    </row>
+    <row r="20" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="3"/>
-      <c r="F20" s="24"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="50" t="s">
+      <c r="J20" s="16"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+    </row>
+    <row r="21" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="41" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+    </row>
+    <row r="22" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="3">
         <v>0.5</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="53"/>
-    </row>
-    <row r="23" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="52"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="53"/>
-    </row>
-    <row r="24" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="42"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="43"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+    </row>
+    <row r="23" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="42"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="43"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+    </row>
+    <row r="24" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="43" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="55" t="s">
+      <c r="I24" s="11"/>
+      <c r="J24" s="45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="56" t="s">
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+    </row>
+    <row r="25" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="38" t="s">
+      <c r="G25" s="11"/>
+      <c r="H25" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="57" t="s">
+      <c r="I25" s="11"/>
+      <c r="J25" s="47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+    </row>
+    <row r="26" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="59"/>
-    </row>
-    <row r="27" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="58"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="59"/>
-    </row>
-    <row r="28" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="60" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="49"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+    </row>
+    <row r="27" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="48"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="49"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+    </row>
+    <row r="28" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="40" t="s">
+      <c r="G28" s="11"/>
+      <c r="H28" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="61" t="s">
+      <c r="I28" s="11"/>
+      <c r="J28" s="51" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+    </row>
+    <row r="29" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="1"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="19"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+    </row>
+    <row r="30" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="77" t="s">
+      <c r="F30" s="24"/>
+      <c r="G30" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="24"/>
-      <c r="G31" s="18"/>
+    <row r="31" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="17"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="78"/>
-    </row>
-    <row r="32" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="24"/>
-      <c r="G32" s="18"/>
+      <c r="J31" s="53"/>
+    </row>
+    <row r="32" spans="5:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="17"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="78"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="24"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="54" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="79" t="s">
+      <c r="J33" s="54" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1426,63 +1461,63 @@
       <c r="E34" s="3">
         <v>0.125</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="30"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="24"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="26"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="1"/>
-      <c r="G36" s="18"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="26"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F37" s="1"/>
-      <c r="G37" s="18"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="26"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="30"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F39" s="1"/>
-      <c r="G39" s="18"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="26"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="26"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="5:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F41" s="29"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="27"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
